--- a/stl/excel_results.xlsx
+++ b/stl/excel_results.xlsx
@@ -38,12 +38,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ff6699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff6666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff6699"/>
+        <fgColor rgb="00ff6633"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccff33"/>
       </patternFill>
     </fill>
     <fill>
@@ -53,7 +63,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="0066cc33"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,17 +73,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="006666ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0033ff33"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ccff33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff6633"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -83,22 +93,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00009966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0066cc33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="003333ff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006666ff"/>
+        <fgColor rgb="00009966"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,6 +226,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,9 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3669,7 +3669,7 @@
           <t>903</t>
         </is>
       </c>
-      <c r="AB46" s="13" t="inlineStr">
+      <c r="AB46" s="17" t="inlineStr">
         <is>
           <t>890</t>
         </is>
@@ -3756,7 +3756,7 @@
           <t>634</t>
         </is>
       </c>
-      <c r="H47" s="17" t="inlineStr">
+      <c r="H47" s="7" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -8648,7 +8648,7 @@
           <t>433</t>
         </is>
       </c>
-      <c r="J76" s="17" t="inlineStr">
+      <c r="J76" s="7" t="inlineStr">
         <is>
           <t>202</t>
         </is>
@@ -9972,7 +9972,7 @@
           <t>210</t>
         </is>
       </c>
-      <c r="AH83" s="15" t="inlineStr">
+      <c r="AH83" s="17" t="inlineStr">
         <is>
           <t>890</t>
         </is>
@@ -10585,7 +10585,7 @@
           <t>671</t>
         </is>
       </c>
-      <c r="S87" s="17" t="inlineStr">
+      <c r="S87" s="10" t="inlineStr">
         <is>
           <t>701</t>
         </is>
@@ -12437,7 +12437,7 @@
           <t>938</t>
         </is>
       </c>
-      <c r="K98" s="17" t="inlineStr">
+      <c r="K98" s="8" t="inlineStr">
         <is>
           <t>202</t>
         </is>
@@ -13530,12 +13530,12 @@
           <t>680</t>
         </is>
       </c>
-      <c r="E109" s="17" t="inlineStr">
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>701</t>
         </is>
       </c>
-      <c r="F109" s="17" t="inlineStr">
+      <c r="F109" s="6" t="inlineStr">
         <is>
           <t>202</t>
         </is>
@@ -13643,17 +13643,17 @@
       </c>
       <c r="E112" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>324</t>
         </is>
       </c>
       <c r="F112" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>938</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -13680,17 +13680,17 @@
       </c>
       <c r="E113" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>070</t>
         </is>
       </c>
       <c r="F113" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>717</t>
         </is>
       </c>
       <c r="G113" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>796</t>
         </is>
       </c>
     </row>
@@ -13717,17 +13717,17 @@
       </c>
       <c r="E114" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>892</t>
         </is>
       </c>
       <c r="F114" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>738</t>
         </is>
       </c>
       <c r="G114" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -13754,17 +13754,17 @@
       </c>
       <c r="E115" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>939</t>
         </is>
       </c>
       <c r="F115" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>817</t>
         </is>
       </c>
       <c r="G115" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>756</t>
         </is>
       </c>
     </row>
@@ -13791,17 +13791,17 @@
       </c>
       <c r="E116" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>449</t>
         </is>
       </c>
       <c r="F116" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>344</t>
         </is>
       </c>
       <c r="G116" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>699</t>
         </is>
       </c>
     </row>
@@ -13828,17 +13828,17 @@
       </c>
       <c r="E117" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>415</t>
         </is>
       </c>
       <c r="F117" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>808</t>
         </is>
       </c>
       <c r="G117" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>025</t>
         </is>
       </c>
     </row>
@@ -13865,17 +13865,17 @@
       </c>
       <c r="E118" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>216</t>
         </is>
       </c>
       <c r="F118" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>823</t>
         </is>
       </c>
       <c r="G118" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>585</t>
         </is>
       </c>
     </row>
@@ -13902,17 +13902,17 @@
       </c>
       <c r="E119" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>692</t>
         </is>
       </c>
       <c r="F119" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>004</t>
         </is>
       </c>
       <c r="G119" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>566</t>
         </is>
       </c>
     </row>
@@ -13939,17 +13939,17 @@
       </c>
       <c r="E120" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>488</t>
         </is>
       </c>
       <c r="F120" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>363</t>
         </is>
       </c>
       <c r="G120" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>944</t>
         </is>
       </c>
     </row>
@@ -13976,17 +13976,17 @@
       </c>
       <c r="E121" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>182</t>
         </is>
       </c>
       <c r="F121" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>545</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>948</t>
         </is>
       </c>
     </row>
@@ -14013,17 +14013,17 @@
       </c>
       <c r="E122" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F122" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>376</t>
         </is>
       </c>
       <c r="G122" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>965</t>
         </is>
       </c>
     </row>
@@ -14050,17 +14050,17 @@
       </c>
       <c r="E123" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>866</t>
         </is>
       </c>
       <c r="F123" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>378</t>
         </is>
       </c>
       <c r="G123" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>208</t>
         </is>
       </c>
     </row>
@@ -14087,17 +14087,17 @@
       </c>
       <c r="E124" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F124" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>866</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>207</t>
         </is>
       </c>
     </row>
@@ -14124,17 +14124,17 @@
       </c>
       <c r="E125" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>989</t>
         </is>
       </c>
       <c r="F125" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>396</t>
         </is>
       </c>
       <c r="G125" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>189</t>
         </is>
       </c>
     </row>
@@ -14161,17 +14161,17 @@
       </c>
       <c r="E126" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>035</t>
         </is>
       </c>
       <c r="F126" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>547</t>
         </is>
       </c>
       <c r="G126" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -14198,17 +14198,17 @@
       </c>
       <c r="E127" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F127" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>083</t>
         </is>
       </c>
       <c r="G127" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>691</t>
         </is>
       </c>
     </row>
@@ -14235,17 +14235,17 @@
       </c>
       <c r="E128" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>130</t>
         </is>
       </c>
       <c r="F128" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>609</t>
         </is>
       </c>
       <c r="G128" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>448</t>
         </is>
       </c>
     </row>
@@ -14272,17 +14272,17 @@
       </c>
       <c r="E129" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>694</t>
         </is>
       </c>
       <c r="F129" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>876</t>
         </is>
       </c>
       <c r="G129" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -14309,17 +14309,17 @@
       </c>
       <c r="E130" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>087</t>
         </is>
       </c>
       <c r="F130" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>304</t>
         </is>
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>038</t>
         </is>
       </c>
     </row>
@@ -14346,17 +14346,17 @@
       </c>
       <c r="E131" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>088</t>
         </is>
       </c>
       <c r="F131" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>777</t>
         </is>
       </c>
       <c r="G131" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -14383,17 +14383,17 @@
       </c>
       <c r="E132" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>373</t>
         </is>
       </c>
       <c r="F132" s="6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G132" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="G132" s="17" t="inlineStr">
+        <is>
+          <t>790</t>
         </is>
       </c>
     </row>
@@ -14418,19 +14418,19 @@
           <t>592</t>
         </is>
       </c>
-      <c r="E133" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E133" s="17" t="inlineStr">
+        <is>
+          <t>890</t>
         </is>
       </c>
       <c r="F133" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>495</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>398</t>
         </is>
       </c>
     </row>
